--- a/RAW/IMD_Template.xlsx
+++ b/RAW/IMD_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ITEMCODE</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>ASUS ZENPHONE GO 5.5</t>
+  </si>
+  <si>
+    <t>BARCODE</t>
   </si>
 </sst>
 </file>
@@ -404,20 +407,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="10" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,91 +429,94 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4500</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5600</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4300</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4500</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
     </row>
